--- a/finanse_jk.xlsx
+++ b/finanse_jk.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A013-32.CAMPUS.005\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-32.CAMPUS.013\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B10F06-5475-46DC-8764-A405155A669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93502F9-5053-42B9-B18D-3A2229626726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operacje" sheetId="1" r:id="rId1"/>
     <sheet name="kategorie" sheetId="2" r:id="rId2"/>
-    <sheet name="styczeń" sheetId="3" r:id="rId3"/>
+    <sheet name="bilans" sheetId="15" r:id="rId3"/>
+    <sheet name="styczeń" sheetId="3" r:id="rId4"/>
+    <sheet name="luty" sheetId="4" r:id="rId5"/>
+    <sheet name="marzec" sheetId="5" r:id="rId6"/>
+    <sheet name="kwiecień" sheetId="6" r:id="rId7"/>
+    <sheet name="maj" sheetId="7" r:id="rId8"/>
+    <sheet name="czerwiec" sheetId="8" r:id="rId9"/>
+    <sheet name="lipiec" sheetId="9" r:id="rId10"/>
+    <sheet name="sierpień" sheetId="10" r:id="rId11"/>
+    <sheet name="wrzesień" sheetId="11" r:id="rId12"/>
+    <sheet name="październik" sheetId="12" r:id="rId13"/>
+    <sheet name="listopad" sheetId="13" r:id="rId14"/>
+    <sheet name="grudzień" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +47,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="60">
   <si>
     <t>Kwota</t>
   </si>
@@ -178,15 +212,55 @@
   <si>
     <t>Suma końcowa</t>
   </si>
+  <si>
+    <t>Styczeń</t>
+  </si>
+  <si>
+    <t>Luty</t>
+  </si>
+  <si>
+    <t>Marzec</t>
+  </si>
+  <si>
+    <t>Kwiecień</t>
+  </si>
+  <si>
+    <t>Maj</t>
+  </si>
+  <si>
+    <t>Czerwiec</t>
+  </si>
+  <si>
+    <t>Lipiec</t>
+  </si>
+  <si>
+    <t>Sierpień</t>
+  </si>
+  <si>
+    <t>Wrzesień</t>
+  </si>
+  <si>
+    <t>Październik</t>
+  </si>
+  <si>
+    <t>Listopad</t>
+  </si>
+  <si>
+    <t>Grudzień</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +279,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -254,13 +335,214 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="79">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -306,7 +588,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -325,7 +607,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -450,18 +732,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BF8D561-EAC4-4E40-8628-14DAA5E8CF27}" name="operacje" displayName="operacje" ref="A1:G207" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BF8D561-EAC4-4E40-8628-14DAA5E8CF27}" name="operacje" displayName="operacje" ref="A1:G207" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A1:G207" xr:uid="{0BF8D561-EAC4-4E40-8628-14DAA5E8CF27}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B8857B41-0690-4140-9508-8EB2F86C2418}" name="Kwota" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{8737DB25-07FD-44EB-805B-1641B976A182}" name="Bank" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4A9094D1-E12A-4CE8-AB00-1DFB7FB177DB}" name="Produkt" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{1224FC88-5012-46A9-A6E9-0D5DA9C8C6C9}" name="Kategoria" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{0154B310-56AF-4FB1-8E2D-85895B1AD7F1}" name="Kolumna1" dataDxfId="4">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{B8857B41-0690-4140-9508-8EB2F86C2418}" name="Kwota" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{8737DB25-07FD-44EB-805B-1641B976A182}" name="Bank" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{4A9094D1-E12A-4CE8-AB00-1DFB7FB177DB}" name="Produkt" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{1224FC88-5012-46A9-A6E9-0D5DA9C8C6C9}" name="Kategoria" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{0154B310-56AF-4FB1-8E2D-85895B1AD7F1}" name="Kolumna1" dataDxfId="72">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{09FE7463-68E1-4ED3-9920-5871C0F8E8B6}" name="Data" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{AAFC0472-B768-483D-85E9-17952F581F91}" name="Kolumna2" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{09FE7463-68E1-4ED3-9920-5871C0F8E8B6}" name="Data" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{AAFC0472-B768-483D-85E9-17952F581F91}" name="Kolumna2" dataDxfId="70">
       <calculatedColumnFormula>IF(ISBLANK(operacje[[#This Row],[Data]]),,MONTH(operacje[[#This Row],[Data]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -469,8 +751,155 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D12755E9-94E2-4FDF-B44D-398D3083FC0B}" name="Czerwiec_saldo" displayName="Czerwiec_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{60AD479A-4120-468B-8334-58C88B772250}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{87A220EA-64E8-4D63-A263-E76348E88B45}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{8ED21787-4AA5-4123-82CD-1F122A57253C}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{8811E4AB-CAC6-42D7-BAC4-90CF4BAFDA03}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="42">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1F8B34D5-FEC1-4C9A-829F-2FD6361CE195}" name="Operacje" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="40">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Czerwiec_saldo[[#This Row],[Bank]],operacje[Produkt],Czerwiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{43ED895D-7AD0-4470-86FC-3C4EDA971882}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="38">
+      <calculatedColumnFormula>Czerwiec_saldo[[#This Row],[Operacje]]+Czerwiec_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5FE63296-7CC1-4426-BD9F-1E63DADD0506}" name="Lipiec_saldo" displayName="Lipiec_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E25BB350-88E7-4775-916B-3A94F4BBA77C}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{8DD60B4B-A3BC-4268-A86A-AEBD0B8BB112}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{0E3EBDAD-AE56-49BE-8064-67A66D15D5DE}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{4128BD9D-ADF0-4A12-B96E-29607CCE7619}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="36">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{FAE2B30F-415D-4CC3-97B4-1267BD8A186E}" name="Operacje" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="34">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],Lipiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6BDBF6CB-42F8-4F42-8C12-E8D8BB9E39BE}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="32">
+      <calculatedColumnFormula>Lipiec_saldo[[#This Row],[Operacje]]+Lipiec_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C281CEE1-119B-43A8-A4CD-67DC0B1E0727}" name="Sierpień_saldo" displayName="Sierpień_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2E92BE2A-7A96-425A-B136-0F973815ADAF}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{940A1623-6602-441B-8CE0-92D5417CD865}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{4AB096FF-505F-46FA-B485-6DF53CC2E5D6}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{D675AAF2-D3BE-4DAC-AB1D-627EEBD1F158}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="30">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{24BCB945-24E1-4DF5-9F9F-3375ACCFF6E2}" name="Operacje" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="28">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Sierpień_saldo[[#This Row],[Bank]],operacje[Produkt],Sierpień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{1289A631-852A-44CB-B172-805EC85722DF}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="26">
+      <calculatedColumnFormula>Sierpień_saldo[[#This Row],[Operacje]]+Sierpień_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F7EC1975-86AC-4FD8-A6F6-8F23C7519BFE}" name="Wrzesień_saldo" displayName="Wrzesień_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2F4063BD-CC7C-4ECD-BD43-3CF917F20F7C}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{D1653947-132B-4488-BD23-393DA248594D}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{FB8A769E-01BC-4941-9DB7-485BCE782204}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{8A4E6919-B6FD-41CF-A4E8-58FC8144DD77}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="24">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{0DD1BFE1-51BB-45D4-A161-4E3086C163E6}" name="Operacje" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="22">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Wrzesień_saldo[[#This Row],[Bank]],operacje[Produkt],Wrzesień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A845FBB3-639B-47F3-9139-3F9F445375FE}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="20">
+      <calculatedColumnFormula>Wrzesień_saldo[[#This Row],[Operacje]]+Wrzesień_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9AAABBDC-7354-4F70-A35A-E721A2C37F3F}" name="Październik_saldo" displayName="Październik_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D7188BF3-F785-476C-8D23-B8106C05CF9A}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{BF9DCFCC-D298-4899-858E-134A0003DA18}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{99A3AF22-EA0D-43B5-9371-BBE885742C13}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{3828B720-6D28-4737-9124-7AF284EC3480}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="18">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4FCFEA17-9982-4AEF-9F46-C38E47F928D7}" name="Operacje" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="16">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Październik_saldo[[#This Row],[Bank]],operacje[Produkt],Październik_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3C54C93E-BCAD-4B9D-9C23-2E45653C6B54}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="14">
+      <calculatedColumnFormula>Październik_saldo[[#This Row],[Operacje]]+Październik_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{DF987DE9-8B38-4DC0-8D4C-DE634C747748}" name="Listopad_saldo" displayName="Listopad_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A135D2F0-5B73-490A-B0FF-0E1DBED9DE50}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{12F7E3F6-66EB-4DB0-AEE4-2B9730974821}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{7E029B46-DCD8-41EB-9A5C-74ACC0E656AE}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{4259EEFB-816F-4DE7-9566-79E3D175A9AA}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="12">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{EF8FB88C-7E5F-42DE-AA24-D39176217E5A}" name="Operacje" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="10">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Listopad_saldo[[#This Row],[Bank]],operacje[Produkt],Listopad_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D08B675C-5C2D-4F39-9199-A71F1F63B860}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="8">
+      <calculatedColumnFormula>Listopad_saldo[[#This Row],[Operacje]]+Listopad_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D55CE27F-17B8-4CCB-9464-4B3ABB534458}" name="Grudzień_saldo" displayName="Grudzień_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{96818E45-3AFF-45D9-A62C-63C40A4D643A}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{30BDC1CC-3674-4817-9DB3-7D8912C465EE}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{F077B0B5-C594-49CC-A4E7-A16917CBB36B}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{07F9A32A-BABE-492A-AC76-8AEE2BA44A7E}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7DAE6587-3988-491C-9CBB-0EB9507CC017}" name="Operacje" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Grudzień_saldo[[#This Row],[Bank]],operacje[Produkt],Grudzień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4943EDD5-E4A0-4361-A4DF-583F79322AE5}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1">
+      <calculatedColumnFormula>Grudzień_saldo[[#This Row],[Operacje]]+Grudzień_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{75FE8D46-834C-4B29-976C-09E2D1865963}" name="Tabela2" displayName="Tabela2" ref="A1:B17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{75FE8D46-834C-4B29-976C-09E2D1865963}" name="Kategorie" displayName="Kategorie" ref="A1:B17" totalsRowShown="0">
   <autoFilter ref="A1:B17" xr:uid="{75FE8D46-834C-4B29-976C-09E2D1865963}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9C986E9A-C862-4E52-9D01-DC5B91F5B1DE}" name="Kategorie"/>
@@ -492,18 +921,127 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}" name="Tabela13" displayName="Tabela13" ref="A1:F9" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{B5F071D5-AB05-40ED-8D14-ADED159710BD}" name="saldo" displayName="saldo" ref="A1:N9" totalsRowShown="0">
+  <autoFilter ref="A1:N9" xr:uid="{B5F071D5-AB05-40ED-8D14-ADED159710BD}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{F762E80F-A310-467C-BFA4-7220E9DE91F3}" name="Bank"/>
+    <tableColumn id="2" xr3:uid="{376187AE-EAD7-4B99-BDB6-D9D6620803F3}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{F3894BA7-F710-47E2-8EEC-D625895A7D6A}" name="Styczeń" dataDxfId="0">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{339115D1-E59D-44D5-9AC1-BCAB3AD62E95}" name="Luty"/>
+    <tableColumn id="5" xr3:uid="{E5807B97-B093-4E58-9981-FB203305F3F5}" name="Marzec"/>
+    <tableColumn id="6" xr3:uid="{EF451B81-8C5F-4BD7-B623-9FA2715B5773}" name="Kwiecień"/>
+    <tableColumn id="7" xr3:uid="{F7EAB9B9-8722-46DC-9657-77E5D153255F}" name="Maj"/>
+    <tableColumn id="8" xr3:uid="{A2E6EDEF-E2A0-4BF8-AA3C-ECB3FC8FE8F4}" name="Czerwiec"/>
+    <tableColumn id="9" xr3:uid="{721B3774-6838-4A71-B4B1-8FE0E8F1ED5D}" name="Lipiec"/>
+    <tableColumn id="10" xr3:uid="{D05D78B2-6132-4F22-9516-4BEEFF3781EE}" name="Sierpień"/>
+    <tableColumn id="11" xr3:uid="{BCE7FBDF-72EE-40BF-A4A6-02BE76778E93}" name="Wrzesień"/>
+    <tableColumn id="12" xr3:uid="{6850F26A-E2A4-4983-8F55-C137CF213312}" name="Październik"/>
+    <tableColumn id="13" xr3:uid="{EB7B81C0-A9DA-4BCB-91EC-70C6D57F48F9}" name="Listopad"/>
+    <tableColumn id="14" xr3:uid="{FFEC4BA8-CD09-486B-8DFE-2D941275F097}" name="Grudzień"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}" name="Styczeń_saldo" displayName="Styczeń_saldo" ref="A1:F9" totalsRowCount="1">
   <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E1CE7BD9-2C02-45B3-937A-98422F17EC1C}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{BCCB0B33-9DE4-4F24-9E7E-2EAEEBF51470}" name="Produkt"/>
     <tableColumn id="3" xr3:uid="{01E76974-3FD1-4247-A180-2945781A1C10}" name="Produkt2" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{956FAFED-38DB-487A-8067-83A56F7AFAF7}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4AA7C108-18B1-478C-84FC-FC16A8E3F900}" name="Operacje" totalsRowFunction="sum" dataDxfId="1">
-      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Tabela13[[#This Row],[Bank]],operacje[Produkt],Tabela13[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{956FAFED-38DB-487A-8067-83A56F7AFAF7}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{4AA7C108-18B1-478C-84FC-FC16A8E3F900}" name="Operacje" totalsRowFunction="sum" dataDxfId="68">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Styczeń_saldo[[#This Row],[Bank]],operacje[Produkt],Styczeń_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{22ACA09F-EF6D-4C49-B1E8-01FA6558FF82}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="0">
-      <calculatedColumnFormula>Tabela13[[#This Row],[Operacje]]+Tabela13[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{22ACA09F-EF6D-4C49-B1E8-01FA6558FF82}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="67">
+      <calculatedColumnFormula>Styczeń_saldo[[#This Row],[Operacje]]+Styczeń_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74B656F4-D0F6-4033-832F-AB226369FB46}" name="Luty_saldo" displayName="Luty_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D0BDFA6C-0C91-4590-BB68-B2BB0FEDE8D0}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{61C38380-261C-4565-B47F-929C3E966D1B}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{EE4A1FCB-5FF0-4EA2-8818-CAF231AE433A}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{0FA5BBAC-E459-4AD8-8ED9-DF9B3EABB258}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="64">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B86D289B-5B3F-4B2C-84F5-A3A7489EB279}" name="Operacje" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="63">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Luty_saldo[[#This Row],[Bank]],operacje[Produkt],Luty_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{68695D09-E984-40BB-B044-63FC5C0E0077}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="62">
+      <calculatedColumnFormula>Luty_saldo[[#This Row],[Operacje]]+Luty_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{17E46AAB-503B-4EE2-A067-C3EF66323D57}" name="Marzec_saldo" displayName="Marzec_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4EA676FD-54A7-4DB9-A61B-34933511E53E}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{F88C7F9C-0666-419F-B1DB-CC73EB746AF7}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{FB16F737-1625-4F5F-A9E4-2176E0D8CDB9}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{6992A275-E813-4FDB-85A3-94C7AA699CEB}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="57">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{84E85FE1-DA53-489A-AD89-5E4B6042163F}" name="Operacje" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="56">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Marzec_saldo[[#This Row],[Bank]],operacje[Produkt],Marzec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A48B3E53-31A7-423D-B41B-7FA0583DFCFE}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="55">
+      <calculatedColumnFormula>Marzec_saldo[[#This Row],[Operacje]]+Marzec_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB8218AD-E40B-4898-B097-53A3A9EE9403}" name="Kwiecień_saldo" displayName="Kwiecień_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8A2ED6CB-9CED-4BC5-8E56-EEA00BB52A4F}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{81BA9055-D3AB-4A4C-A280-E303A9CCD9BC}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{EF982CF7-2736-452F-AB5A-DBF7CAECB9B3}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{C9305C3E-E643-4DA8-A510-BF89F92E83E9}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="54">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B4D896B2-C843-4B3A-8750-9E980DA94848}" name="Operacje" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="52">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Kwiecień_saldo[[#This Row],[Bank]],operacje[Produkt],Kwiecień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E2DC1F0F-9010-48F8-BAE2-A141676D3693}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="50">
+      <calculatedColumnFormula>Kwiecień_saldo[[#This Row],[Operacje]]+Kwiecień_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{81C36D4B-59C7-415B-A06C-016604343AF3}" name="Maj_saldo" displayName="Maj_saldo" ref="A1:F9" totalsRowCount="1">
+  <autoFilter ref="A1:F8" xr:uid="{C877112F-60D3-4D46-A880-C37DF1D9F6D0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{92E26F88-B54D-4548-A2CF-E85AD6F91DD2}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{BD4C528E-888C-419A-9F9F-133A40C2BBE9}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{3CD14C51-B5BB-4025-8059-224869159B17}" name="Produkt2" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{7C7C562D-890C-4833-9429-58FCA5F497CC}" name="Saldo początkowe " totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="48">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D89802FB-A8E8-4F65-B7AE-84F26E97F7E5}" name="Operacje" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="46">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],Maj_saldo[[#This Row],[Bank]],operacje[Produkt],Maj_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A3485344-BBD5-48E6-87C7-B08292F8BF8E}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="44">
+      <calculatedColumnFormula>Maj_saldo[[#This Row],[Operacje]]+Maj_saldo[[#This Row],[Saldo początkowe ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -809,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2E07F4-7261-4A7F-9183-17B238414C64}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F2" s="3">
@@ -886,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F3" s="3">
@@ -911,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F4" s="3">
@@ -936,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F5" s="3">
@@ -961,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F6" s="3">
@@ -986,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F7" s="3">
@@ -1011,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F8" s="3">
@@ -1036,7 +1574,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F9" s="3">
@@ -1061,7 +1599,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F10" s="3">
@@ -1086,7 +1624,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F11" s="3">
@@ -1111,7 +1649,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F12" s="3">
@@ -1136,7 +1674,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F13" s="3">
@@ -1161,7 +1699,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F14" s="3">
@@ -1186,7 +1724,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F15" s="3">
@@ -1211,7 +1749,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F16" s="3">
@@ -1236,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F17" s="3">
@@ -1261,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F18" s="3">
@@ -1286,7 +1824,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F19" s="3">
@@ -1311,7 +1849,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F20" s="3">
@@ -1336,7 +1874,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F21" s="3">
@@ -1361,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F22" s="3">
@@ -1386,7 +1924,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F23" s="3">
@@ -1411,7 +1949,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F24" s="3">
@@ -1436,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F25" s="3">
@@ -1461,7 +1999,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F26" s="3">
@@ -1486,7 +2024,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F27" s="3">
@@ -1511,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F28" s="3">
@@ -1536,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F29" s="3">
@@ -1561,7 +2099,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F30" s="3">
@@ -1586,7 +2124,7 @@
         <v>17</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F31" s="3">
@@ -1611,7 +2149,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F32" s="3">
@@ -1636,7 +2174,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F33" s="3">
@@ -1661,7 +2199,7 @@
         <v>23</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F34" s="3">
@@ -1686,7 +2224,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F35" s="3">
@@ -1711,7 +2249,7 @@
         <v>15</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F36" s="3">
@@ -1736,7 +2274,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F37" s="3">
@@ -1761,7 +2299,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F38" s="3">
@@ -1786,7 +2324,7 @@
         <v>15</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F39" s="3">
@@ -1811,7 +2349,7 @@
         <v>28</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F40" s="3">
@@ -1836,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F41" s="3">
@@ -1861,7 +2399,7 @@
         <v>17</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F42" s="3">
@@ -1886,7 +2424,7 @@
         <v>27</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F43" s="3">
@@ -1911,7 +2449,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F44" s="3">
@@ -1936,7 +2474,7 @@
         <v>27</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F45" s="3">
@@ -1961,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F46" s="3">
@@ -1986,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F47" s="3">
@@ -2011,7 +2549,7 @@
         <v>21</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F48" s="3">
@@ -2036,7 +2574,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F49" s="3">
@@ -2061,7 +2599,7 @@
         <v>27</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F50" s="3">
@@ -2086,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F51" s="3">
@@ -2111,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F52" s="3">
@@ -2136,7 +2674,7 @@
         <v>11</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F53" s="3">
@@ -2161,7 +2699,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F54" s="3">
@@ -2186,7 +2724,7 @@
         <v>22</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F55" s="3">
@@ -2211,7 +2749,7 @@
         <v>28</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F56" s="3">
@@ -2236,7 +2774,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F57" s="3">
@@ -2261,7 +2799,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F58" s="3">
@@ -2286,7 +2824,7 @@
         <v>17</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F59" s="3">
@@ -2311,7 +2849,7 @@
         <v>30</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F60" s="3">
@@ -2336,7 +2874,7 @@
         <v>23</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F61" s="3">
@@ -2361,7 +2899,7 @@
         <v>7</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F62" s="3">
@@ -2386,7 +2924,7 @@
         <v>28</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F63" s="3">
@@ -2411,7 +2949,7 @@
         <v>21</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F64" s="3">
@@ -2436,7 +2974,7 @@
         <v>27</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F65" s="3">
@@ -2461,7 +2999,7 @@
         <v>7</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F66" s="3">
@@ -2486,7 +3024,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F67" s="3">
@@ -2511,7 +3049,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F68" s="3">
@@ -2536,7 +3074,7 @@
         <v>22</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F69" s="3">
@@ -2561,7 +3099,7 @@
         <v>29</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F70" s="3">
@@ -2586,7 +3124,7 @@
         <v>29</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F71" s="3">
@@ -2611,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F72" s="3">
@@ -2636,7 +3174,7 @@
         <v>7</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F73" s="3">
@@ -2661,7 +3199,7 @@
         <v>17</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F74" s="3">
@@ -2686,7 +3224,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F75" s="3">
@@ -2711,7 +3249,7 @@
         <v>7</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F76" s="3">
@@ -2736,7 +3274,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F77" s="3">
@@ -2761,7 +3299,7 @@
         <v>30</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F78" s="3">
@@ -2786,7 +3324,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F79" s="3">
@@ -2811,7 +3349,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F80" s="3">
@@ -2836,7 +3374,7 @@
         <v>23</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F81" s="3">
@@ -2861,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F82" s="3">
@@ -2886,7 +3424,7 @@
         <v>21</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F83" s="3">
@@ -2911,7 +3449,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F84" s="3">
@@ -2936,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F85" s="3">
@@ -2961,7 +3499,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F86" s="3">
@@ -2986,7 +3524,7 @@
         <v>29</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F87" s="3">
@@ -3011,7 +3549,7 @@
         <v>29</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F88" s="3">
@@ -3036,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F89" s="3">
@@ -3061,7 +3599,7 @@
         <v>7</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F90" s="3">
@@ -3086,7 +3624,7 @@
         <v>14</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F91" s="3">
@@ -3111,7 +3649,7 @@
         <v>20</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F92" s="3">
@@ -3136,7 +3674,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F93" s="3">
@@ -3161,7 +3699,7 @@
         <v>21</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F94" s="3">
@@ -3186,7 +3724,7 @@
         <v>9</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F95" s="3">
@@ -3211,7 +3749,7 @@
         <v>11</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F96" s="3">
@@ -3236,7 +3774,7 @@
         <v>7</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F97" s="3">
@@ -3261,7 +3799,7 @@
         <v>29</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F98" s="3">
@@ -3286,7 +3824,7 @@
         <v>29</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F99" s="3">
@@ -3311,7 +3849,7 @@
         <v>28</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F100" s="3">
@@ -3336,7 +3874,7 @@
         <v>7</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F101" s="3">
@@ -3361,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F102" s="3">
@@ -3386,7 +3924,7 @@
         <v>22</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F103" s="3">
@@ -3411,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F104" s="3">
@@ -3436,7 +3974,7 @@
         <v>19</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F105" s="3">
@@ -3461,7 +3999,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F106" s="3">
@@ -3486,7 +4024,7 @@
         <v>7</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F107" s="3">
@@ -3511,7 +4049,7 @@
         <v>20</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F108" s="3">
@@ -3536,7 +4074,7 @@
         <v>9</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F109" s="3">
@@ -3561,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F110" s="3">
@@ -3586,7 +4124,7 @@
         <v>7</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F111" s="3">
@@ -3611,7 +4149,7 @@
         <v>29</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F112" s="3">
@@ -3636,7 +4174,7 @@
         <v>29</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F113" s="3">
@@ -3661,7 +4199,7 @@
         <v>28</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F114" s="3">
@@ -3686,7 +4224,7 @@
         <v>30</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F115" s="3">
@@ -3711,7 +4249,7 @@
         <v>20</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F116" s="3">
@@ -3736,7 +4274,7 @@
         <v>27</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F117" s="3">
@@ -3761,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F118" s="3">
@@ -3786,7 +4324,7 @@
         <v>7</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F119" s="3">
@@ -3811,7 +4349,7 @@
         <v>22</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F120" s="3">
@@ -3836,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F121" s="3">
@@ -3861,7 +4399,7 @@
         <v>7</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F122" s="3">
@@ -3886,7 +4424,7 @@
         <v>7</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F123" s="3">
@@ -3911,7 +4449,7 @@
         <v>29</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F124" s="3">
@@ -3936,7 +4474,7 @@
         <v>21</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F125" s="3">
@@ -3961,7 +4499,7 @@
         <v>7</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F126" s="3">
@@ -3986,7 +4524,7 @@
         <v>9</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F127" s="3">
@@ -4011,7 +4549,7 @@
         <v>11</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F128" s="3">
@@ -4036,7 +4574,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F129" s="3">
@@ -4061,7 +4599,7 @@
         <v>29</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F130" s="3">
@@ -4086,7 +4624,7 @@
         <v>29</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F131" s="3">
@@ -4111,7 +4649,7 @@
         <v>28</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F132" s="3">
@@ -4136,7 +4674,7 @@
         <v>7</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F133" s="3">
@@ -4161,7 +4699,7 @@
         <v>30</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F134" s="3">
@@ -4186,7 +4724,7 @@
         <v>20</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F135" s="3">
@@ -4211,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F136" s="3">
@@ -4236,7 +4774,7 @@
         <v>21</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F137" s="3">
@@ -4261,7 +4799,7 @@
         <v>22</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F138" s="3">
@@ -4286,7 +4824,7 @@
         <v>31</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F139" s="3">
@@ -4311,7 +4849,7 @@
         <v>30</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F140" s="3">
@@ -4336,7 +4874,7 @@
         <v>21</v>
       </c>
       <c r="E141" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F141" s="3">
@@ -4361,7 +4899,7 @@
         <v>7</v>
       </c>
       <c r="E142" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F142" s="3">
@@ -4386,7 +4924,7 @@
         <v>14</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F143" s="3">
@@ -4411,7 +4949,7 @@
         <v>7</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F144" s="3">
@@ -4436,7 +4974,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F145" s="3">
@@ -4461,7 +4999,7 @@
         <v>20</v>
       </c>
       <c r="E146" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F146" s="3">
@@ -4486,7 +5024,7 @@
         <v>11</v>
       </c>
       <c r="E147" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F147" s="3">
@@ -4511,7 +5049,7 @@
         <v>29</v>
       </c>
       <c r="E148" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F148" s="3">
@@ -4536,7 +5074,7 @@
         <v>29</v>
       </c>
       <c r="E149" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F149" s="3">
@@ -4561,7 +5099,7 @@
         <v>7</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F150" s="3">
@@ -4586,7 +5124,7 @@
         <v>21</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F151" s="3">
@@ -4611,7 +5149,7 @@
         <v>14</v>
       </c>
       <c r="E152" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F152" s="3">
@@ -4636,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="E153" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F153" s="3">
@@ -4661,7 +5199,7 @@
         <v>9</v>
       </c>
       <c r="E154" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F154" s="3">
@@ -4686,7 +5224,7 @@
         <v>20</v>
       </c>
       <c r="E155" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F155" s="3">
@@ -4711,7 +5249,7 @@
         <v>11</v>
       </c>
       <c r="E156" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F156" s="3">
@@ -4736,7 +5274,7 @@
         <v>29</v>
       </c>
       <c r="E157" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F157" s="3">
@@ -4761,7 +5299,7 @@
         <v>29</v>
       </c>
       <c r="E158" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F158" s="3">
@@ -4786,7 +5324,7 @@
         <v>9</v>
       </c>
       <c r="E159" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F159" s="3">
@@ -4811,7 +5349,7 @@
         <v>11</v>
       </c>
       <c r="E160" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F160" s="3">
@@ -4836,7 +5374,7 @@
         <v>21</v>
       </c>
       <c r="E161" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F161" s="3">
@@ -4861,7 +5399,7 @@
         <v>7</v>
       </c>
       <c r="E162" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F162" s="3">
@@ -4886,7 +5424,7 @@
         <v>14</v>
       </c>
       <c r="E163" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F163" s="3">
@@ -4911,7 +5449,7 @@
         <v>20</v>
       </c>
       <c r="E164" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F164" s="3">
@@ -4936,7 +5474,7 @@
         <v>29</v>
       </c>
       <c r="E165" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F165" s="3">
@@ -4961,7 +5499,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Transfer</v>
       </c>
       <c r="F166" s="3">
@@ -4986,7 +5524,7 @@
         <v>7</v>
       </c>
       <c r="E167" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F167" s="3">
@@ -5011,7 +5549,7 @@
         <v>28</v>
       </c>
       <c r="E168" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F168" s="3">
@@ -5036,7 +5574,7 @@
         <v>21</v>
       </c>
       <c r="E169" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F169" s="3">
@@ -5061,7 +5599,7 @@
         <v>7</v>
       </c>
       <c r="E170" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F170" s="3">
@@ -5086,7 +5624,7 @@
         <v>22</v>
       </c>
       <c r="E171" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F171" s="3">
@@ -5111,7 +5649,7 @@
         <v>17</v>
       </c>
       <c r="E172" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F172" s="3">
@@ -5136,7 +5674,7 @@
         <v>22</v>
       </c>
       <c r="E173" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F173" s="3">
@@ -5161,7 +5699,7 @@
         <v>7</v>
       </c>
       <c r="E174" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F174" s="3">
@@ -5186,7 +5724,7 @@
         <v>28</v>
       </c>
       <c r="E175" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F175" s="3">
@@ -5211,7 +5749,7 @@
         <v>14</v>
       </c>
       <c r="E176" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F176" s="3">
@@ -5236,7 +5774,7 @@
         <v>21</v>
       </c>
       <c r="E177" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F177" s="3">
@@ -5261,7 +5799,7 @@
         <v>20</v>
       </c>
       <c r="E178" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F178" s="3">
@@ -5286,7 +5824,7 @@
         <v>7</v>
       </c>
       <c r="E179" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F179" s="3">
@@ -5311,7 +5849,7 @@
         <v>21</v>
       </c>
       <c r="E180" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F180" s="3">
@@ -5336,7 +5874,7 @@
         <v>20</v>
       </c>
       <c r="E181" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F181" s="3">
@@ -5361,7 +5899,7 @@
         <v>21</v>
       </c>
       <c r="E182" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F182" s="3">
@@ -5386,7 +5924,7 @@
         <v>17</v>
       </c>
       <c r="E183" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F183" s="3">
@@ -5411,7 +5949,7 @@
         <v>30</v>
       </c>
       <c r="E184" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F184" s="3">
@@ -5436,7 +5974,7 @@
         <v>7</v>
       </c>
       <c r="E185" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F185" s="3">
@@ -5461,7 +5999,7 @@
         <v>7</v>
       </c>
       <c r="E186" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F186" s="3">
@@ -5486,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="E187" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F187" s="3">
@@ -5511,7 +6049,7 @@
         <v>28</v>
       </c>
       <c r="E188" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F188" s="3">
@@ -5536,7 +6074,7 @@
         <v>17</v>
       </c>
       <c r="E189" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F189" s="3">
@@ -5561,7 +6099,7 @@
         <v>22</v>
       </c>
       <c r="E190" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F190" s="3">
@@ -5586,7 +6124,7 @@
         <v>28</v>
       </c>
       <c r="E191" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F191" s="3">
@@ -5611,7 +6149,7 @@
         <v>17</v>
       </c>
       <c r="E192" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F192" s="3">
@@ -5636,7 +6174,7 @@
         <v>22</v>
       </c>
       <c r="E193" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F193" s="3">
@@ -5661,7 +6199,7 @@
         <v>20</v>
       </c>
       <c r="E194" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F194" s="3">
@@ -5686,7 +6224,7 @@
         <v>20</v>
       </c>
       <c r="E195" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F195" s="3">
@@ -5711,7 +6249,7 @@
         <v>7</v>
       </c>
       <c r="E196" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F196" s="3">
@@ -5736,7 +6274,7 @@
         <v>7</v>
       </c>
       <c r="E197" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F197" s="3">
@@ -5761,7 +6299,7 @@
         <v>9</v>
       </c>
       <c r="E198" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F198" s="3">
@@ -5786,7 +6324,7 @@
         <v>11</v>
       </c>
       <c r="E199" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F199" s="3">
@@ -5811,7 +6349,7 @@
         <v>20</v>
       </c>
       <c r="E200" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F200" s="3">
@@ -5836,7 +6374,7 @@
         <v>23</v>
       </c>
       <c r="E201" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F201" s="3">
@@ -5861,7 +6399,7 @@
         <v>7</v>
       </c>
       <c r="E202" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F202" s="3">
@@ -5886,7 +6424,7 @@
         <v>30</v>
       </c>
       <c r="E203" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F203" s="3">
@@ -5911,7 +6449,7 @@
         <v>20</v>
       </c>
       <c r="E204" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F204" s="3">
@@ -5936,7 +6474,7 @@
         <v>30</v>
       </c>
       <c r="E205" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wpływy</v>
       </c>
       <c r="F205" s="3">
@@ -5961,7 +6499,7 @@
         <v>17</v>
       </c>
       <c r="E206" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F206" s="3">
@@ -5986,7 +6524,7 @@
         <v>7</v>
       </c>
       <c r="E207" s="1" t="str">
-        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Tabela2[Kategorie],Tabela2[[Typ ]],"",0)</f>
+        <f>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],Kategorie[Kategorie],Kategorie[[Typ ]],"",0)</f>
         <v>Wydatki</v>
       </c>
       <c r="F207" s="3">
@@ -6029,256 +6567,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA8762E-6571-4124-9655-4068B9A8DD41}">
-  <dimension ref="A1:I17"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B696AF5D-0378-4092-A088-F57E1A37F8BF}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I8">
-    <sortCondition ref="H2:H8"/>
-    <sortCondition ref="I2:I8"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85D5727-7DDF-4499-8218-2FBB92129661}">
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6321,16 +6615,17 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-1300</v>
       </c>
       <c r="E2" s="4">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],Tabela13[[#This Row],[Bank]],operacje[Produkt],Tabela13[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
-        <v>-175</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],Lipiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>1165</v>
       </c>
       <c r="F2" s="4">
-        <f>Tabela13[[#This Row],[Operacje]]+Tabela13[[#This Row],[Saldo początkowe ]]</f>
-        <v>-175</v>
+        <f ca="1">Lipiec_saldo[[#This Row],[Operacje]]+Lipiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>-135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6340,16 +6635,17 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
-        <v>600</v>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>8872.44</v>
       </c>
       <c r="E3" s="4">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],Tabela13[[#This Row],[Bank]],operacje[Produkt],Tabela13[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
-        <v>1100</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],Lipiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>1010</v>
       </c>
       <c r="F3" s="4">
-        <f>Tabela13[[#This Row],[Operacje]]+Tabela13[[#This Row],[Saldo początkowe ]]</f>
-        <v>1700</v>
+        <f ca="1">Lipiec_saldo[[#This Row],[Operacje]]+Lipiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>9882.44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6359,16 +6655,17 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4">
-        <v>2000</v>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
       </c>
       <c r="E4" s="4">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],Tabela13[[#This Row],[Bank]],operacje[Produkt],Tabela13[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
-        <v>-400</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],Lipiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-180</v>
       </c>
       <c r="F4" s="4">
-        <f>Tabela13[[#This Row],[Operacje]]+Tabela13[[#This Row],[Saldo początkowe ]]</f>
-        <v>1600</v>
+        <f ca="1">Lipiec_saldo[[#This Row],[Operacje]]+Lipiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6378,16 +6675,17 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
-        <v>100</v>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>468.5</v>
       </c>
       <c r="E5" s="4">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],Tabela13[[#This Row],[Bank]],operacje[Produkt],Tabela13[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
-        <v>-35</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],Lipiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-100</v>
       </c>
       <c r="F5" s="4">
-        <f>Tabela13[[#This Row],[Operacje]]+Tabela13[[#This Row],[Saldo początkowe ]]</f>
-        <v>65</v>
+        <f ca="1">Lipiec_saldo[[#This Row],[Operacje]]+Lipiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>368.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6397,16 +6695,17 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
-        <v>10.5</v>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
       </c>
       <c r="E6" s="4">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],Tabela13[[#This Row],[Bank]],operacje[Produkt],Tabela13[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
-        <v>255.5</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],Lipiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>1050</v>
       </c>
       <c r="F6" s="4">
-        <f>Tabela13[[#This Row],[Operacje]]+Tabela13[[#This Row],[Saldo początkowe ]]</f>
-        <v>266</v>
+        <f ca="1">Lipiec_saldo[[#This Row],[Operacje]]+Lipiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1386</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6416,16 +6715,17 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4">
-        <v>200</v>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
       </c>
       <c r="E7" s="4">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],Tabela13[[#This Row],[Bank]],operacje[Produkt],Tabela13[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
-        <v>-50</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],Lipiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-30</v>
       </c>
       <c r="F7" s="4">
-        <f>Tabela13[[#This Row],[Operacje]]+Tabela13[[#This Row],[Saldo początkowe ]]</f>
-        <v>150</v>
+        <f ca="1">Lipiec_saldo[[#This Row],[Operacje]]+Lipiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>195.51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6435,16 +6735,17 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4">
-        <v>30</v>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
       </c>
       <c r="E8" s="4">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],Tabela13[[#This Row],[Bank]],operacje[Produkt],Tabela13[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
-        <v>150</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],Lipiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <f>Tabela13[[#This Row],[Operacje]]+Tabela13[[#This Row],[Saldo początkowe ]]</f>
-        <v>180</v>
+        <f ca="1">Lipiec_saldo[[#This Row],[Operacje]]+Lipiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>390.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6452,20 +6753,20 @@
         <v>41</v>
       </c>
       <c r="C9">
-        <f>SUBTOTAL(109,Tabela13[Produkt2])</f>
+        <f>SUBTOTAL(109,Lipiec_saldo[Produkt2])</f>
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <f>SUBTOTAL(109,Tabela13[[Saldo początkowe ]])</f>
-        <v>2940.5</v>
+        <f ca="1">SUBTOTAL(109,Lipiec_saldo[[Saldo początkowe ]])</f>
+        <v>10192.950000000001</v>
       </c>
       <c r="E9" s="4">
-        <f>SUBTOTAL(109,Tabela13[Operacje])</f>
-        <v>845.5</v>
+        <f>SUBTOTAL(109,Lipiec_saldo[Operacje])</f>
+        <v>2915</v>
       </c>
       <c r="F9" s="4">
-        <f>SUBTOTAL(109,Tabela13[Saldo końcowe])</f>
-        <v>3786</v>
+        <f ca="1">SUBTOTAL(109,Lipiec_saldo[Saldo końcowe])</f>
+        <v>13107.95</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6473,7 +6774,11 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>lipiec</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6495,7 +6800,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],styczeń!$B$11)</f>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],lipiec!$B$11)</f>
         <v>0</v>
       </c>
     </row>
@@ -6517,8 +6822,8 @@
         <v>10</v>
       </c>
       <c r="C16" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>0</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6529,8 +6834,8 @@
         <v>10</v>
       </c>
       <c r="C17" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>105.5</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6541,8 +6846,8 @@
         <v>10</v>
       </c>
       <c r="C18" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>250</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6553,8 +6858,8 @@
         <v>10</v>
       </c>
       <c r="C19" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>800</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6565,8 +6870,8 @@
         <v>10</v>
       </c>
       <c r="C20" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>0</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6577,7 +6882,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],styczeń!$B$11)</f>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],lipiec!$B$11)</f>
         <v>4500</v>
       </c>
     </row>
@@ -6588,7 +6893,7 @@
       </c>
       <c r="C22" s="5">
         <f>SUBTOTAL(9,C16:C21)</f>
-        <v>5655.5</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6599,8 +6904,8 @@
         <v>8</v>
       </c>
       <c r="C23" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>-1715</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>-165</v>
       </c>
     </row>
     <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6611,7 +6916,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],styczeń!$B$11)</f>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],lipiec!$B$11)</f>
         <v>-2000</v>
       </c>
     </row>
@@ -6623,8 +6928,8 @@
         <v>8</v>
       </c>
       <c r="C25" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>-80</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6635,8 +6940,8 @@
         <v>8</v>
       </c>
       <c r="C26" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>-500</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6647,8 +6952,8 @@
         <v>8</v>
       </c>
       <c r="C27" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>-85</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>-700</v>
       </c>
     </row>
     <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6659,8 +6964,8 @@
         <v>8</v>
       </c>
       <c r="C28" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>-100</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6671,8 +6976,8 @@
         <v>8</v>
       </c>
       <c r="C29" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>-150</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6683,8 +6988,8 @@
         <v>8</v>
       </c>
       <c r="C30" s="5">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],styczeń!$B$11)</f>
-        <v>-80</v>
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>-90</v>
       </c>
     </row>
     <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6695,28 +7000,6130 @@
         <v>8</v>
       </c>
       <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],lipiec!$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692CEE9F-5C50-434B-92DB-14BD9FEA1C63}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-135</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Sierpień_saldo[[#This Row],[Bank]],operacje[Produkt],Sierpień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>33</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">Sierpień_saldo[[#This Row],[Operacje]]+Sierpień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>9882.44</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Sierpień_saldo[[#This Row],[Bank]],operacje[Produkt],Sierpień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>1475</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1">Sierpień_saldo[[#This Row],[Operacje]]+Sierpień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>11357.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1020</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Sierpień_saldo[[#This Row],[Bank]],operacje[Produkt],Sierpień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-1020</v>
+      </c>
+      <c r="F4" s="4">
+        <f ca="1">Sierpień_saldo[[#This Row],[Operacje]]+Sierpień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>368.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Sierpień_saldo[[#This Row],[Bank]],operacje[Produkt],Sierpień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>200</v>
+      </c>
+      <c r="F5" s="4">
+        <f ca="1">Sierpień_saldo[[#This Row],[Operacje]]+Sierpień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>568.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1386</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Sierpień_saldo[[#This Row],[Bank]],operacje[Produkt],Sierpień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-300</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">Sierpień_saldo[[#This Row],[Operacje]]+Sierpień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Sierpień_saldo[[#This Row],[Bank]],operacje[Produkt],Sierpień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f ca="1">Sierpień_saldo[[#This Row],[Operacje]]+Sierpień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Sierpień_saldo[[#This Row],[Bank]],operacje[Produkt],Sierpień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">Sierpień_saldo[[#This Row],[Operacje]]+Sierpień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Sierpień_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1">SUBTOTAL(109,Sierpień_saldo[[Saldo początkowe ]])</f>
+        <v>13107.95</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Sierpień_saldo[Operacje])</f>
+        <v>390.5</v>
+      </c>
+      <c r="F9" s="4">
+        <f ca="1">SUBTOTAL(109,Sierpień_saldo[Saldo końcowe])</f>
+        <v>13498.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>sierpień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>-1020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>-1020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>-749.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>-290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],sierpień!$B$11)</f>
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3989.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>390.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325B4062-27F4-467F-BCB7-7457C1F77E29}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-102</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Wrzesień_saldo[[#This Row],[Bank]],operacje[Produkt],Wrzesień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>82</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">Wrzesień_saldo[[#This Row],[Operacje]]+Wrzesień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>11357.44</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Wrzesień_saldo[[#This Row],[Bank]],operacje[Produkt],Wrzesień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>1689.5</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1">Wrzesień_saldo[[#This Row],[Operacje]]+Wrzesień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>13046.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Wrzesień_saldo[[#This Row],[Bank]],operacje[Produkt],Wrzesień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f ca="1">Wrzesień_saldo[[#This Row],[Operacje]]+Wrzesień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>568.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Wrzesień_saldo[[#This Row],[Bank]],operacje[Produkt],Wrzesień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-20</v>
+      </c>
+      <c r="F5" s="4">
+        <f ca="1">Wrzesień_saldo[[#This Row],[Operacje]]+Wrzesień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Wrzesień_saldo[[#This Row],[Bank]],operacje[Produkt],Wrzesień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">Wrzesień_saldo[[#This Row],[Operacje]]+Wrzesień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Wrzesień_saldo[[#This Row],[Bank]],operacje[Produkt],Wrzesień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f ca="1">Wrzesień_saldo[[#This Row],[Operacje]]+Wrzesień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Wrzesień_saldo[[#This Row],[Bank]],operacje[Produkt],Wrzesień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">Wrzesień_saldo[[#This Row],[Operacje]]+Wrzesień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Wrzesień_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1">SUBTOTAL(109,Wrzesień_saldo[[Saldo początkowe ]])</f>
+        <v>13498.45</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Wrzesień_saldo[Operacje])</f>
+        <v>1751.5</v>
+      </c>
+      <c r="F9" s="4">
+        <f ca="1">SUBTOTAL(109,Wrzesień_saldo[Saldo końcowe])</f>
+        <v>15249.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>wrzesień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>-538.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],wrzesień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-2748.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1751.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940477B8-1359-4983-9841-C4347DF0C77F}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-20</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Październik_saldo[[#This Row],[Bank]],operacje[Produkt],Październik_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-20</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">Październik_saldo[[#This Row],[Operacje]]+Październik_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>13046.94</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Październik_saldo[[#This Row],[Bank]],operacje[Produkt],Październik_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>1690</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1">Październik_saldo[[#This Row],[Operacje]]+Październik_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>14736.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Październik_saldo[[#This Row],[Bank]],operacje[Produkt],Październik_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f ca="1">Październik_saldo[[#This Row],[Operacje]]+Październik_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Październik_saldo[[#This Row],[Bank]],operacje[Produkt],Październik_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f ca="1">Październik_saldo[[#This Row],[Operacje]]+Październik_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Październik_saldo[[#This Row],[Bank]],operacje[Produkt],Październik_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">Październik_saldo[[#This Row],[Operacje]]+Październik_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Październik_saldo[[#This Row],[Bank]],operacje[Produkt],Październik_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f ca="1">Październik_saldo[[#This Row],[Operacje]]+Październik_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Październik_saldo[[#This Row],[Bank]],operacje[Produkt],Październik_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">Październik_saldo[[#This Row],[Operacje]]+Październik_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Październik_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1">SUBTOTAL(109,Październik_saldo[[Saldo początkowe ]])</f>
+        <v>15249.95</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Październik_saldo[Operacje])</f>
+        <v>1670</v>
+      </c>
+      <c r="F9" s="4">
+        <f ca="1">SUBTOTAL(109,Październik_saldo[Saldo końcowe])</f>
+        <v>16919.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>październik</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],październik!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],październik!$B$11)</f>
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],październik!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],październik!$B$11)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],październik!$B$11)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],październik!$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],październik!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-2830</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1670</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110782BD-37D6-4909-ACFE-931D72109257}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-40</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Listopad_saldo[[#This Row],[Bank]],operacje[Produkt],Listopad_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>40</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">Listopad_saldo[[#This Row],[Operacje]]+Listopad_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>14736.94</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Listopad_saldo[[#This Row],[Bank]],operacje[Produkt],Listopad_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>960</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1">Listopad_saldo[[#This Row],[Operacje]]+Listopad_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>15696.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Listopad_saldo[[#This Row],[Bank]],operacje[Produkt],Listopad_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f ca="1">Listopad_saldo[[#This Row],[Operacje]]+Listopad_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Listopad_saldo[[#This Row],[Bank]],operacje[Produkt],Listopad_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f ca="1">Listopad_saldo[[#This Row],[Operacje]]+Listopad_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Listopad_saldo[[#This Row],[Bank]],operacje[Produkt],Listopad_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">Listopad_saldo[[#This Row],[Operacje]]+Listopad_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Listopad_saldo[[#This Row],[Bank]],operacje[Produkt],Listopad_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f ca="1">Listopad_saldo[[#This Row],[Operacje]]+Listopad_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Listopad_saldo[[#This Row],[Bank]],operacje[Produkt],Listopad_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>400</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">Listopad_saldo[[#This Row],[Operacje]]+Listopad_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Listopad_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1">SUBTOTAL(109,Listopad_saldo[[Saldo początkowe ]])</f>
+        <v>16919.95</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Listopad_saldo[Operacje])</f>
+        <v>1400</v>
+      </c>
+      <c r="F9" s="4">
+        <f ca="1">SUBTOTAL(109,Listopad_saldo[Saldo końcowe])</f>
+        <v>18319.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>listopad</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>-506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>-234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>-214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>-208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],listopad!$B$11)</f>
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18FD94B-B59E-4117-AD93-7674284D1789}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Grudzień_saldo[[#This Row],[Bank]],operacje[Produkt],Grudzień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">Grudzień_saldo[[#This Row],[Operacje]]+Grudzień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>15696.94</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Grudzień_saldo[[#This Row],[Bank]],operacje[Produkt],Grudzień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>1320</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1">Grudzień_saldo[[#This Row],[Operacje]]+Grudzień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>17016.940000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Grudzień_saldo[[#This Row],[Bank]],operacje[Produkt],Grudzień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f ca="1">Grudzień_saldo[[#This Row],[Operacje]]+Grudzień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Grudzień_saldo[[#This Row],[Bank]],operacje[Produkt],Grudzień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f ca="1">Grudzień_saldo[[#This Row],[Operacje]]+Grudzień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Grudzień_saldo[[#This Row],[Bank]],operacje[Produkt],Grudzień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">Grudzień_saldo[[#This Row],[Operacje]]+Grudzień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Grudzień_saldo[[#This Row],[Bank]],operacje[Produkt],Grudzień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f ca="1">Grudzień_saldo[[#This Row],[Operacje]]+Grudzień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>793</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Grudzień_saldo[[#This Row],[Bank]],operacje[Produkt],Grudzień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>1100</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">Grudzień_saldo[[#This Row],[Operacje]]+Grudzień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Grudzień_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1">SUBTOTAL(109,Grudzień_saldo[[Saldo początkowe ]])</f>
+        <v>18319.95</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Grudzień_saldo[Operacje])</f>
+        <v>2420</v>
+      </c>
+      <c r="F9" s="4">
+        <f ca="1">SUBTOTAL(109,Grudzień_saldo[Saldo końcowe])</f>
+        <v>20739.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>grudzień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],grudzień!$B$11)</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-4080</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA8762E-6571-4124-9655-4068B9A8DD41}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I8">
+    <sortCondition ref="H2:H8"/>
+    <sortCondition ref="I2:I8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8446D4-D5A6-44DE-A082-21AFE7C988DC}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-175</v>
+      </c>
+      <c r="D2" s="8" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-104.5</v>
+      </c>
+      <c r="F2" s="8" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-91.389999999999986</v>
+      </c>
+      <c r="G2" s="8" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-1000</v>
+      </c>
+      <c r="H2" s="8" cm="1">
+        <f t="array" aca="1" ref="H2" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-1300</v>
+      </c>
+      <c r="I2" s="8" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-135</v>
+      </c>
+      <c r="J2" s="8" cm="1">
+        <f t="array" aca="1" ref="J2" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-102</v>
+      </c>
+      <c r="K2" s="8" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-20</v>
+      </c>
+      <c r="L2" s="8" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-40</v>
+      </c>
+      <c r="M2" s="8" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="8" cm="1">
+        <f t="array" aca="1" ref="N2" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1700</v>
+      </c>
+      <c r="D3" s="8" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>3739.5</v>
+      </c>
+      <c r="E3" s="8" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>4561.1000000000004</v>
+      </c>
+      <c r="F3" s="8" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>5123.83</v>
+      </c>
+      <c r="G3" s="8" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>7452.4400000000005</v>
+      </c>
+      <c r="H3" s="8" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>8872.44</v>
+      </c>
+      <c r="I3" s="8" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>9882.44</v>
+      </c>
+      <c r="J3" s="8" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>11357.44</v>
+      </c>
+      <c r="K3" s="8" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>13046.94</v>
+      </c>
+      <c r="L3" s="8" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>14736.94</v>
+      </c>
+      <c r="M3" s="8" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>15696.94</v>
+      </c>
+      <c r="N3" s="8" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>17016.940000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1600</v>
+      </c>
+      <c r="D4" s="8" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="E4" s="8" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="F4" s="8" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="G4" s="8" cm="1">
+        <f t="array" aca="1" ref="G4" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="H4" s="8" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="I4" s="8" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1020</v>
+      </c>
+      <c r="J4" s="8" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="8" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="8" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>65</v>
+      </c>
+      <c r="D5" s="8" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="8" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>167.5</v>
+      </c>
+      <c r="F5" s="8" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>268.5</v>
+      </c>
+      <c r="G5" s="8" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>218.5</v>
+      </c>
+      <c r="H5" s="8" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>468.5</v>
+      </c>
+      <c r="I5" s="8" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>368.5</v>
+      </c>
+      <c r="J5" s="8" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>568.5</v>
+      </c>
+      <c r="K5" s="8" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="L5" s="8" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="M5" s="8" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="N5" s="8" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>266</v>
+      </c>
+      <c r="D6" s="8" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>281</v>
+      </c>
+      <c r="E6" s="8" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>286</v>
+      </c>
+      <c r="F6" s="8" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="G6" s="8" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="H6" s="8" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="I6" s="8" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1386</v>
+      </c>
+      <c r="J6" s="8" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="K6" s="8" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="L6" s="8" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="M6" s="8" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="N6" s="8" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>150</v>
+      </c>
+      <c r="D7" s="8" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>250</v>
+      </c>
+      <c r="E7" s="8" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="F7" s="8" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="G7" s="8" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="H7" s="8" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="I7" s="8" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="J7" s="8" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="K7" s="8" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="L7" s="8" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="M7" s="8" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="N7" s="8" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>180</v>
+      </c>
+      <c r="D8" s="8" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>680</v>
+      </c>
+      <c r="E8" s="8" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="F8" s="8" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="G8" s="8" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>590.5</v>
+      </c>
+      <c r="H8" s="8" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="I8" s="8" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="J8" s="8" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="K8" s="8" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="L8" s="8" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="M8" s="8" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>793</v>
+      </c>
+      <c r="N8" s="8" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="8">
+        <f ca="1">SUM(C2:C8)</f>
+        <v>3786</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:N9" ca="1" si="0">SUM(D2:D8)</f>
+        <v>6250.5</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>7006.1100000000006</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>7732.95</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9022.9500000000007</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>10192.950000000001</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>13107.95</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>13498.45</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>15249.95</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>16919.95</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>18319.95</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>20739.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="str" cm="1">
+        <f t="array" ref="B12:B14">_xlfn.UNIQUE(Kategorie[[Typ ]])</f>
+        <v>Transfer</v>
+      </c>
+      <c r="C12" s="8" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(C$11&amp;"!$B$14:$B$32"),INDIRECT(C$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(D$11&amp;"!$B$14:$B$32"),INDIRECT(D$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(E$11&amp;"!$B$14:$B$32"),INDIRECT(E$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(F$11&amp;"!$B$14:$B$32"),INDIRECT(F$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" cm="1">
+        <f t="array" aca="1" ref="G12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(G$11&amp;"!$B$14:$B$32"),INDIRECT(G$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(H$11&amp;"!$B$14:$B$32"),INDIRECT(H$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" cm="1">
+        <f t="array" aca="1" ref="I12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(I$11&amp;"!$B$14:$B$32"),INDIRECT(I$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(J$11&amp;"!$B$14:$B$32"),INDIRECT(J$11&amp;"!$C$14:$C$32"))</f>
+        <v>-1020</v>
+      </c>
+      <c r="K12" s="8" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(K$11&amp;"!$B$14:$B$32"),INDIRECT(K$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(L$11&amp;"!$B$14:$B$32"),INDIRECT(L$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(M$11&amp;"!$B$14:$B$32"),INDIRECT(M$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="8" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <v>Wpływy</v>
+      </c>
+      <c r="C13" s="8" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(C$11&amp;"!$B$14:$B$32"),INDIRECT(C$11&amp;"!$C$14:$C$32"))</f>
+        <v>5655.5</v>
+      </c>
+      <c r="D13" s="8" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(D$11&amp;"!$B$14:$B$32"),INDIRECT(D$11&amp;"!$C$14:$C$32"))</f>
+        <v>6565</v>
+      </c>
+      <c r="E13" s="8" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(E$11&amp;"!$B$14:$B$32"),INDIRECT(E$11&amp;"!$C$14:$C$32"))</f>
+        <v>4655</v>
+      </c>
+      <c r="F13" s="8" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(F$11&amp;"!$B$14:$B$32"),INDIRECT(F$11&amp;"!$C$14:$C$32"))</f>
+        <v>4700</v>
+      </c>
+      <c r="G13" s="8" cm="1">
+        <f t="array" aca="1" ref="G13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(G$11&amp;"!$B$14:$B$32"),INDIRECT(G$11&amp;"!$C$14:$C$32"))</f>
+        <v>4500</v>
+      </c>
+      <c r="H13" s="8" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(H$11&amp;"!$B$14:$B$32"),INDIRECT(H$11&amp;"!$C$14:$C$32"))</f>
+        <v>4900</v>
+      </c>
+      <c r="I13" s="8" cm="1">
+        <f t="array" aca="1" ref="I13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(I$11&amp;"!$B$14:$B$32"),INDIRECT(I$11&amp;"!$C$14:$C$32"))</f>
+        <v>5920</v>
+      </c>
+      <c r="J13" s="8" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(J$11&amp;"!$B$14:$B$32"),INDIRECT(J$11&amp;"!$C$14:$C$32"))</f>
+        <v>5400</v>
+      </c>
+      <c r="K13" s="8" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(K$11&amp;"!$B$14:$B$32"),INDIRECT(K$11&amp;"!$C$14:$C$32"))</f>
+        <v>4500</v>
+      </c>
+      <c r="L13" s="8" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(L$11&amp;"!$B$14:$B$32"),INDIRECT(L$11&amp;"!$C$14:$C$32"))</f>
+        <v>4500</v>
+      </c>
+      <c r="M13" s="8" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(M$11&amp;"!$B$14:$B$32"),INDIRECT(M$11&amp;"!$C$14:$C$32"))</f>
+        <v>4900</v>
+      </c>
+      <c r="N13" s="8" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <v>Wydatki</v>
+      </c>
+      <c r="C14" s="8" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(C$11&amp;"!$B$14:$B$32"),INDIRECT(C$11&amp;"!$C$14:$C$32"))</f>
+        <v>-4810</v>
+      </c>
+      <c r="D14" s="8" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(D$11&amp;"!$B$14:$B$32"),INDIRECT(D$11&amp;"!$C$14:$C$32"))</f>
+        <v>-4100.5</v>
+      </c>
+      <c r="E14" s="8" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(E$11&amp;"!$B$14:$B$32"),INDIRECT(E$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3899.39</v>
+      </c>
+      <c r="F14" s="8" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(F$11&amp;"!$B$14:$B$32"),INDIRECT(F$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3973.1600000000003</v>
+      </c>
+      <c r="G14" s="8" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(G$11&amp;"!$B$14:$B$32"),INDIRECT(G$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3210</v>
+      </c>
+      <c r="H14" s="8" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(H$11&amp;"!$B$14:$B$32"),INDIRECT(H$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3730</v>
+      </c>
+      <c r="I14" s="8" cm="1">
+        <f t="array" aca="1" ref="I14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(I$11&amp;"!$B$14:$B$32"),INDIRECT(I$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3005</v>
+      </c>
+      <c r="J14" s="8" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(J$11&amp;"!$B$14:$B$32"),INDIRECT(J$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3989.5</v>
+      </c>
+      <c r="K14" s="8" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(K$11&amp;"!$B$14:$B$32"),INDIRECT(K$11&amp;"!$C$14:$C$32"))</f>
+        <v>-2748.5</v>
+      </c>
+      <c r="L14" s="8" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(L$11&amp;"!$B$14:$B$32"),INDIRECT(L$11&amp;"!$C$14:$C$32"))</f>
+        <v>-2830</v>
+      </c>
+      <c r="M14" s="8" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(M$11&amp;"!$B$14:$B$32"),INDIRECT(M$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3500</v>
+      </c>
+      <c r="N14" s="8" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</f>
+        <v>-4080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8">
+        <f ca="1">SUM(C12:C14)</f>
+        <v>845.5</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" ref="D15:N15" ca="1" si="1">SUM(D12:D14)</f>
+        <v>2464.5</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>755.61000000000013</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>726.83999999999969</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1290</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1170</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2915</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>390.5</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1751.5</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1670</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2420</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85D5727-7DDF-4499-8218-2FBB92129661}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Styczeń_saldo[[#This Row],[Bank]],operacje[Produkt],Styczeń_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-175</v>
+      </c>
+      <c r="F2" s="4">
+        <f>Styczeń_saldo[[#This Row],[Operacje]]+Styczeń_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>600</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Styczeń_saldo[[#This Row],[Bank]],operacje[Produkt],Styczeń_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>1100</v>
+      </c>
+      <c r="F3" s="4">
+        <f>Styczeń_saldo[[#This Row],[Operacje]]+Styczeń_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Styczeń_saldo[[#This Row],[Bank]],operacje[Produkt],Styczeń_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-400</v>
+      </c>
+      <c r="F4" s="4">
+        <f>Styczeń_saldo[[#This Row],[Operacje]]+Styczeń_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Styczeń_saldo[[#This Row],[Bank]],operacje[Produkt],Styczeń_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-35</v>
+      </c>
+      <c r="F5" s="4">
+        <f>Styczeń_saldo[[#This Row],[Operacje]]+Styczeń_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Styczeń_saldo[[#This Row],[Bank]],operacje[Produkt],Styczeń_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>255.5</v>
+      </c>
+      <c r="F6" s="4">
+        <f>Styczeń_saldo[[#This Row],[Operacje]]+Styczeń_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4">
+        <v>200</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Styczeń_saldo[[#This Row],[Bank]],operacje[Produkt],Styczeń_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-50</v>
+      </c>
+      <c r="F7" s="4">
+        <f>Styczeń_saldo[[#This Row],[Operacje]]+Styczeń_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Styczeń_saldo[[#This Row],[Bank]],operacje[Produkt],Styczeń_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>150</v>
+      </c>
+      <c r="F8" s="4">
+        <f>Styczeń_saldo[[#This Row],[Operacje]]+Styczeń_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Styczeń_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUBTOTAL(109,Styczeń_saldo[[Saldo początkowe ]])</f>
+        <v>2940.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Styczeń_saldo[Operacje])</f>
+        <v>845.5</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUBTOTAL(109,Styczeń_saldo[Saldo końcowe])</f>
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>styczeń</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>5655.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>-1715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],styczeń!$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
         <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],styczeń!$B$11)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <f>SUBTOTAL(9,C23:C31)</f>
         <v>-4810</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
         <f>SUBTOTAL(9,C14:C31)</f>
         <v>845.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F016DC45-8A33-4976-B0F3-975003C3D08C}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-175</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Luty_saldo[[#This Row],[Bank]],operacje[Produkt],Luty_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>175</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">Luty_saldo[[#This Row],[Operacje]]+Luty_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1700</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Luty_saldo[[#This Row],[Bank]],operacje[Produkt],Luty_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>2039.5</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1">Luty_saldo[[#This Row],[Operacje]]+Luty_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>3739.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1600</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Luty_saldo[[#This Row],[Bank]],operacje[Produkt],Luty_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-400</v>
+      </c>
+      <c r="F4" s="4">
+        <f ca="1">Luty_saldo[[#This Row],[Operacje]]+Luty_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>65</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Luty_saldo[[#This Row],[Bank]],operacje[Produkt],Luty_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>35</v>
+      </c>
+      <c r="F5" s="4">
+        <f ca="1">Luty_saldo[[#This Row],[Operacje]]+Luty_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>266</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Luty_saldo[[#This Row],[Bank]],operacje[Produkt],Luty_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">Luty_saldo[[#This Row],[Operacje]]+Luty_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>150</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Luty_saldo[[#This Row],[Bank]],operacje[Produkt],Luty_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="4">
+        <f ca="1">Luty_saldo[[#This Row],[Operacje]]+Luty_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>180</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Luty_saldo[[#This Row],[Bank]],operacje[Produkt],Luty_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>500</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">Luty_saldo[[#This Row],[Operacje]]+Luty_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Luty_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1">SUBTOTAL(109,Luty_saldo[[Saldo początkowe ]])</f>
+        <v>3786</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Luty_saldo[Operacje])</f>
+        <v>2464.5</v>
+      </c>
+      <c r="F9" s="4">
+        <f ca="1">SUBTOTAL(109,Luty_saldo[Saldo końcowe])</f>
+        <v>6250.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>luty</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],luty!$B$11)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],luty!$B$11)</f>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],luty!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],luty!$B$11)</f>
+        <v>-405.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],luty!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],luty!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],luty!$B$11)</f>
+        <v>-765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],luty!$B$11)</f>
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],luty!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],luty!$B$11)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],luty!$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],luty!$B$11)</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-4100.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2464.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A728707E-18CC-4D58-94AE-553EE00D78BA}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Marzec_saldo[[#This Row],[Bank]],operacje[Produkt],Marzec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-104.5</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">Marzec_saldo[[#This Row],[Operacje]]+Marzec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>-104.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>3739.5</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Marzec_saldo[[#This Row],[Bank]],operacje[Produkt],Marzec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>821.59999999999991</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1">Marzec_saldo[[#This Row],[Operacje]]+Marzec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>4561.1000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Marzec_saldo[[#This Row],[Bank]],operacje[Produkt],Marzec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f ca="1">Marzec_saldo[[#This Row],[Operacje]]+Marzec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Marzec_saldo[[#This Row],[Bank]],operacje[Produkt],Marzec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>67.5</v>
+      </c>
+      <c r="F5" s="4">
+        <f ca="1">Marzec_saldo[[#This Row],[Operacje]]+Marzec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>281</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Marzec_saldo[[#This Row],[Bank]],operacje[Produkt],Marzec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">Marzec_saldo[[#This Row],[Operacje]]+Marzec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>250</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Marzec_saldo[[#This Row],[Bank]],operacje[Produkt],Marzec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-24.49</v>
+      </c>
+      <c r="F7" s="4">
+        <f ca="1">Marzec_saldo[[#This Row],[Operacje]]+Marzec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>680</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Marzec_saldo[[#This Row],[Bank]],operacje[Produkt],Marzec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-9.5</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">Marzec_saldo[[#This Row],[Operacje]]+Marzec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Marzec_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1">SUBTOTAL(109,Marzec_saldo[[Saldo początkowe ]])</f>
+        <v>6250.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Marzec_saldo[Operacje])</f>
+        <v>755.6099999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <f ca="1">SUBTOTAL(109,Marzec_saldo[Saldo końcowe])</f>
+        <v>7006.1100000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>marzec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>-734.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>-469.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>-79.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>-82.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],marzec!$B$11)</f>
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3899.39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>755.61000000000013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9726F9-CF9E-49A4-A259-0A4B79F84447}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-104.5</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Kwiecień_saldo[[#This Row],[Bank]],operacje[Produkt],Kwiecień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>13.110000000000007</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">Kwiecień_saldo[[#This Row],[Operacje]]+Kwiecień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>-91.389999999999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>4561.1000000000004</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Kwiecień_saldo[[#This Row],[Bank]],operacje[Produkt],Kwiecień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>562.72999999999968</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1">Kwiecień_saldo[[#This Row],[Operacje]]+Kwiecień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>5123.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Kwiecień_saldo[[#This Row],[Bank]],operacje[Produkt],Kwiecień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f ca="1">Kwiecień_saldo[[#This Row],[Operacje]]+Kwiecień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>167.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Kwiecień_saldo[[#This Row],[Bank]],operacje[Produkt],Kwiecień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>101</v>
+      </c>
+      <c r="F5" s="4">
+        <f ca="1">Kwiecień_saldo[[#This Row],[Operacje]]+Kwiecień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>286</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Kwiecień_saldo[[#This Row],[Bank]],operacje[Produkt],Kwiecień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>50</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">Kwiecień_saldo[[#This Row],[Operacje]]+Kwiecień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Kwiecień_saldo[[#This Row],[Bank]],operacje[Produkt],Kwiecień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f ca="1">Kwiecień_saldo[[#This Row],[Operacje]]+Kwiecień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Kwiecień_saldo[[#This Row],[Bank]],operacje[Produkt],Kwiecień_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">Kwiecień_saldo[[#This Row],[Operacje]]+Kwiecień_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>670.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Kwiecień_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1">SUBTOTAL(109,Kwiecień_saldo[[Saldo początkowe ]])</f>
+        <v>7006.1100000000006</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Kwiecień_saldo[Operacje])</f>
+        <v>726.83999999999969</v>
+      </c>
+      <c r="F9" s="4">
+        <f ca="1">SUBTOTAL(109,Kwiecień_saldo[Saldo końcowe])</f>
+        <v>7732.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>kwiecień</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>-372.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>-1057.9000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>-82.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],kwiecień!$B$11)</f>
+        <v>-23.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3973.1600000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>726.83999999999969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B4C406-5D7F-4AB4-B1CB-42CD9E1A0390}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-91.389999999999986</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Maj_saldo[[#This Row],[Bank]],operacje[Produkt],Maj_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-908.61</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">Maj_saldo[[#This Row],[Operacje]]+Maj_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>5123.83</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Maj_saldo[[#This Row],[Bank]],operacje[Produkt],Maj_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>2328.61</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1">Maj_saldo[[#This Row],[Operacje]]+Maj_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>7452.4400000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Maj_saldo[[#This Row],[Bank]],operacje[Produkt],Maj_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f ca="1">Maj_saldo[[#This Row],[Operacje]]+Maj_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>268.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Maj_saldo[[#This Row],[Bank]],operacje[Produkt],Maj_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-50</v>
+      </c>
+      <c r="F5" s="4">
+        <f ca="1">Maj_saldo[[#This Row],[Operacje]]+Maj_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>218.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Maj_saldo[[#This Row],[Bank]],operacje[Produkt],Maj_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">Maj_saldo[[#This Row],[Operacje]]+Maj_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Maj_saldo[[#This Row],[Bank]],operacje[Produkt],Maj_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f ca="1">Maj_saldo[[#This Row],[Operacje]]+Maj_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Maj_saldo[[#This Row],[Bank]],operacje[Produkt],Maj_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-80</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">Maj_saldo[[#This Row],[Operacje]]+Maj_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>590.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Maj_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1">SUBTOTAL(109,Maj_saldo[[Saldo początkowe ]])</f>
+        <v>7732.95</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Maj_saldo[Operacje])</f>
+        <v>1290</v>
+      </c>
+      <c r="F9" s="4">
+        <f ca="1">SUBTOTAL(109,Maj_saldo[Saldo końcowe])</f>
+        <v>9022.9500000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>maj</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],maj!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],maj!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],maj!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],maj!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],maj!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],maj!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],maj!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],maj!$B$11)</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],maj!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],maj!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],maj!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],maj!$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],maj!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],maj!$B$11)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],maj!$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],maj!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50D458F-18BB-4D0A-A64F-B8F4900D0090}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-1000</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Czerwiec_saldo[[#This Row],[Bank]],operacje[Produkt],Czerwiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-300</v>
+      </c>
+      <c r="F2" s="4">
+        <f ca="1">Czerwiec_saldo[[#This Row],[Operacje]]+Czerwiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>7452.4400000000005</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Czerwiec_saldo[[#This Row],[Bank]],operacje[Produkt],Czerwiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>1420</v>
+      </c>
+      <c r="F3" s="4">
+        <f ca="1">Czerwiec_saldo[[#This Row],[Operacje]]+Czerwiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>8872.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Czerwiec_saldo[[#This Row],[Bank]],operacje[Produkt],Czerwiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f ca="1">Czerwiec_saldo[[#This Row],[Operacje]]+Czerwiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>218.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Czerwiec_saldo[[#This Row],[Bank]],operacje[Produkt],Czerwiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>250</v>
+      </c>
+      <c r="F5" s="4">
+        <f ca="1">Czerwiec_saldo[[#This Row],[Operacje]]+Czerwiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>468.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Czerwiec_saldo[[#This Row],[Bank]],operacje[Produkt],Czerwiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f ca="1">Czerwiec_saldo[[#This Row],[Operacje]]+Czerwiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Czerwiec_saldo[[#This Row],[Bank]],operacje[Produkt],Czerwiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f ca="1">Czerwiec_saldo[[#This Row],[Operacje]]+Czerwiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>590.5</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],Czerwiec_saldo[[#This Row],[Bank]],operacje[Produkt],Czerwiec_saldo[[#This Row],[Produkt]],operacje[Kolumna2],$B$11)</f>
+        <v>-200</v>
+      </c>
+      <c r="F8" s="4">
+        <f ca="1">Czerwiec_saldo[[#This Row],[Operacje]]+Czerwiec_saldo[[#This Row],[Saldo początkowe ]]</f>
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Czerwiec_saldo[Produkt2])</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f ca="1">SUBTOTAL(109,Czerwiec_saldo[[Saldo początkowe ]])</f>
+        <v>9022.9500000000007</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUBTOTAL(109,Czerwiec_saldo[Operacje])</f>
+        <v>1170</v>
+      </c>
+      <c r="F9" s="4">
+        <f ca="1">SUBTOTAL(109,Czerwiec_saldo[Saldo końcowe])</f>
+        <v>10192.950000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>czerwiec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Kolumna2],czerwiec!$B$11)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3730</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
